--- a/forms/ppic/mrp-rm/assy_plan_xls.xlsx
+++ b/forms/ppic/mrp-rm/assy_plan_xls.xlsx
@@ -35,30 +35,39 @@
     <t>REVISI</t>
   </si>
   <si>
+    <t>G06NC</t>
+  </si>
+  <si>
+    <t>LR03#1</t>
+  </si>
+  <si>
+    <t>2020-11-1</t>
+  </si>
+  <si>
     <t>C01NC</t>
   </si>
   <si>
-    <t>LR03#1</t>
-  </si>
-  <si>
-    <t>2020-7-1</t>
+    <t>LR03#2</t>
   </si>
   <si>
     <t>G08E</t>
   </si>
   <si>
+    <t>LR06#2</t>
+  </si>
+  <si>
+    <t>G07NC</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>G073</t>
+  </si>
+  <si>
     <t>LR06#1</t>
   </si>
   <si>
-    <t>G07NC</t>
-  </si>
-  <si>
-    <t>LR06#2</t>
-  </si>
-  <si>
-    <t>G08NC</t>
-  </si>
-  <si>
     <t>LR06#3</t>
   </si>
   <si>
@@ -68,97 +77,88 @@
     <t>LR06#6</t>
   </si>
   <si>
-    <t>2020-7-10</t>
-  </si>
-  <si>
-    <t>LR03#2</t>
-  </si>
-  <si>
-    <t>2020-7-11</t>
-  </si>
-  <si>
-    <t>2020-7-12</t>
-  </si>
-  <si>
-    <t>2020-7-13</t>
-  </si>
-  <si>
-    <t>2020-7-14</t>
-  </si>
-  <si>
-    <t>2020-7-15</t>
-  </si>
-  <si>
-    <t>2020-7-16</t>
-  </si>
-  <si>
-    <t>2020-7-17</t>
-  </si>
-  <si>
-    <t>2020-7-18</t>
-  </si>
-  <si>
-    <t>2020-7-19</t>
-  </si>
-  <si>
-    <t>2020-7-2</t>
-  </si>
-  <si>
-    <t>2020-7-20</t>
-  </si>
-  <si>
-    <t>2020-7-21</t>
-  </si>
-  <si>
-    <t>2020-7-22</t>
-  </si>
-  <si>
-    <t>2020-7-23</t>
-  </si>
-  <si>
-    <t>2020-7-24</t>
-  </si>
-  <si>
-    <t>2020-7-25</t>
-  </si>
-  <si>
-    <t>2020-7-26</t>
-  </si>
-  <si>
-    <t>2020-7-27</t>
-  </si>
-  <si>
-    <t>2020-7-28</t>
-  </si>
-  <si>
-    <t>2020-7-29</t>
-  </si>
-  <si>
-    <t>2020-7-3</t>
-  </si>
-  <si>
-    <t>2020-7-30</t>
-  </si>
-  <si>
-    <t>2020-7-4</t>
-  </si>
-  <si>
-    <t>2020-7-5</t>
-  </si>
-  <si>
-    <t>G06NC</t>
-  </si>
-  <si>
-    <t>2020-7-6</t>
-  </si>
-  <si>
-    <t>2020-7-7</t>
-  </si>
-  <si>
-    <t>2020-7-8</t>
-  </si>
-  <si>
-    <t>2020-7-9</t>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-2</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-3</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-11-4</t>
+  </si>
+  <si>
+    <t>2020-11-5</t>
+  </si>
+  <si>
+    <t>2020-11-6</t>
+  </si>
+  <si>
+    <t>2020-11-7</t>
+  </si>
+  <si>
+    <t>2020-11-8</t>
+  </si>
+  <si>
+    <t>2020-11-9</t>
   </si>
 </sst>
 </file>
@@ -544,10 +544,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E171" sqref="E171"/>
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,7 +555,7 @@
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -594,10 +594,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>234000</v>
+        <v>380000</v>
       </c>
       <c r="F2" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -614,10 +614,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="5">
-        <v>202000</v>
+        <v>260000</v>
       </c>
       <c r="F3" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -634,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>150000</v>
+        <v>332000</v>
       </c>
       <c r="F4" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -648,16 +648,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5">
-        <v>50000</v>
+        <v>380000</v>
       </c>
       <c r="F5" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -665,19 +665,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="3">
-        <v>207000</v>
+        <v>260000</v>
       </c>
       <c r="F6" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -685,19 +685,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
-        <v>220000</v>
+        <v>332000</v>
       </c>
       <c r="F7" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -708,16 +708,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
-        <v>315000</v>
+        <v>332000</v>
       </c>
       <c r="F8" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -725,19 +725,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5">
-        <v>342000</v>
+        <v>332000</v>
       </c>
       <c r="F9" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -745,19 +745,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
-        <v>190000</v>
+        <v>387000</v>
       </c>
       <c r="F10" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -765,19 +765,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5">
-        <v>296000</v>
+        <v>456000</v>
       </c>
       <c r="F11" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -785,19 +785,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3">
-        <v>303000</v>
+        <v>380000</v>
       </c>
       <c r="F12" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -805,19 +805,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
-        <v>303000</v>
+        <v>260000</v>
       </c>
       <c r="F13" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -825,19 +825,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
-        <v>320000</v>
+        <v>332000</v>
       </c>
       <c r="F14" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -848,16 +848,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5">
-        <v>462000</v>
+        <v>332000</v>
       </c>
       <c r="F15" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -868,16 +868,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3">
-        <v>303000</v>
+        <v>332000</v>
       </c>
       <c r="F16" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -885,19 +885,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5">
-        <v>310000</v>
+        <v>387000</v>
       </c>
       <c r="F17" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -905,19 +905,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3">
-        <v>310000</v>
+        <v>456000</v>
       </c>
       <c r="F18" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -925,19 +925,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" s="5">
-        <v>330000</v>
+        <v>380000</v>
       </c>
       <c r="F19" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -945,19 +945,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3">
-        <v>207000</v>
+        <v>260000</v>
       </c>
       <c r="F20" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -965,19 +965,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="5">
-        <v>207000</v>
+        <v>332000</v>
       </c>
       <c r="F21" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -988,16 +988,16 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3">
-        <v>220000</v>
+        <v>332000</v>
       </c>
       <c r="F22" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1005,19 +1005,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="5">
-        <v>234000</v>
+        <v>332000</v>
       </c>
       <c r="F23" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1025,7 +1025,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1034,10 +1034,10 @@
         <v>21</v>
       </c>
       <c r="E24" s="3">
-        <v>133000</v>
+        <v>387000</v>
       </c>
       <c r="F24" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1045,19 +1045,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="5">
-        <v>202000</v>
+        <v>456000</v>
       </c>
       <c r="F25" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1065,19 +1065,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="3">
-        <v>207000</v>
+        <v>370000</v>
       </c>
       <c r="F26" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1085,19 +1085,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="5">
-        <v>207000</v>
+        <v>250000</v>
       </c>
       <c r="F27" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1105,19 +1105,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" s="3">
-        <v>220000</v>
+        <v>325000</v>
       </c>
       <c r="F28" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1128,16 +1128,16 @@
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="5">
-        <v>315000</v>
+        <v>325000</v>
       </c>
       <c r="F29" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1145,19 +1145,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="3">
-        <v>350000</v>
+        <v>325000</v>
       </c>
       <c r="F30" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1165,7 +1165,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>18</v>
@@ -1174,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="E31" s="5">
-        <v>199000</v>
+        <v>379000</v>
       </c>
       <c r="F31" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1185,19 +1185,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="3">
-        <v>303000</v>
+        <v>446000</v>
       </c>
       <c r="F32" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1205,19 +1205,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="5">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="F33" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1225,19 +1225,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" s="3">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="F34" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1245,19 +1245,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="5">
-        <v>330000</v>
+        <v>332000</v>
       </c>
       <c r="F35" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1268,16 +1268,16 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" s="3">
-        <v>473000</v>
+        <v>332000</v>
       </c>
       <c r="F36" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1285,19 +1285,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="5">
-        <v>350000</v>
+        <v>332000</v>
       </c>
       <c r="F37" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1305,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -1314,10 +1314,10 @@
         <v>23</v>
       </c>
       <c r="E38" s="3">
-        <v>199000</v>
+        <v>387000</v>
       </c>
       <c r="F38" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1325,19 +1325,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="5">
-        <v>303000</v>
+        <v>456000</v>
       </c>
       <c r="F39" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1345,19 +1345,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="3">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="F40" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1365,19 +1365,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="5">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="F41" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1388,16 +1388,16 @@
         <v>11</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" s="3">
-        <v>330000</v>
+        <v>332000</v>
       </c>
       <c r="F42" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1405,19 +1405,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E43" s="5">
-        <v>473000</v>
+        <v>380000</v>
       </c>
       <c r="F43" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1425,19 +1425,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44" s="3">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="F44" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1445,19 +1445,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
-        <v>303000</v>
+        <v>332000</v>
       </c>
       <c r="F45" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1471,13 +1471,13 @@
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" s="3">
-        <v>310000</v>
+        <v>332000</v>
       </c>
       <c r="F46" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1485,19 +1485,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" s="5">
-        <v>310000</v>
+        <v>332000</v>
       </c>
       <c r="F47" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1505,19 +1505,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48" s="3">
-        <v>330000</v>
+        <v>387000</v>
       </c>
       <c r="F48" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1525,19 +1525,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5">
-        <v>473000</v>
+        <v>456000</v>
       </c>
       <c r="F49" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1545,19 +1545,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E50" s="3">
-        <v>342000</v>
+        <v>380000</v>
       </c>
       <c r="F50" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1571,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E51" s="5">
-        <v>296000</v>
+        <v>260000</v>
       </c>
       <c r="F51" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1585,19 +1585,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E52" s="3">
-        <v>303000</v>
+        <v>332000</v>
       </c>
       <c r="F52" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1608,16 +1608,16 @@
         <v>11</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E53" s="5">
-        <v>303000</v>
+        <v>332000</v>
       </c>
       <c r="F53" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1625,19 +1625,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E54" s="3">
-        <v>320000</v>
+        <v>332000</v>
       </c>
       <c r="F54" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1645,19 +1645,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E55" s="5">
-        <v>462000</v>
+        <v>387000</v>
       </c>
       <c r="F55" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1665,19 +1665,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="3">
-        <v>303000</v>
+        <v>456000</v>
       </c>
       <c r="F56" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1685,19 +1685,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57" s="5">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="F57" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1705,19 +1705,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E58" s="3">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="F58" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1725,19 +1725,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59" s="5">
-        <v>330000</v>
+        <v>332000</v>
       </c>
       <c r="F59" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1754,10 +1754,10 @@
         <v>27</v>
       </c>
       <c r="E60" s="3">
-        <v>207000</v>
+        <v>332000</v>
       </c>
       <c r="F60" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1765,19 +1765,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E61" s="5">
-        <v>207000</v>
+        <v>332000</v>
       </c>
       <c r="F61" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1785,19 +1785,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E62" s="3">
-        <v>220000</v>
+        <v>387000</v>
       </c>
       <c r="F62" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1805,19 +1805,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63" s="5">
-        <v>350000</v>
+        <v>456000</v>
       </c>
       <c r="F63" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1825,19 +1825,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="3">
-        <v>303000</v>
+        <v>380000</v>
       </c>
       <c r="F64" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1845,19 +1845,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E65" s="5">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="F65" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1865,19 +1865,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E66" s="3">
-        <v>310000</v>
+        <v>332000</v>
       </c>
       <c r="F66" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1888,16 +1888,16 @@
         <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="5">
-        <v>330000</v>
+        <v>332000</v>
       </c>
       <c r="F67" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1905,19 +1905,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="3">
-        <v>473000</v>
+        <v>332000</v>
       </c>
       <c r="F68" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1925,19 +1925,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E69" s="5">
-        <v>234000</v>
+        <v>387000</v>
       </c>
       <c r="F69" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1945,19 +1945,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="3">
-        <v>202000</v>
+        <v>456000</v>
       </c>
       <c r="F70" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1965,19 +1965,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E71" s="5">
-        <v>207000</v>
+        <v>380000</v>
       </c>
       <c r="F71" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1985,19 +1985,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E72" s="3">
-        <v>207000</v>
+        <v>260000</v>
       </c>
       <c r="F72" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2008,16 +2008,16 @@
         <v>11</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E73" s="5">
-        <v>220000</v>
+        <v>332000</v>
       </c>
       <c r="F73" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2028,16 +2028,16 @@
         <v>11</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E74" s="3">
-        <v>315000</v>
+        <v>332000</v>
       </c>
       <c r="F74" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2045,19 +2045,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" s="5">
-        <v>350000</v>
+        <v>332000</v>
       </c>
       <c r="F75" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2065,19 +2065,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76" s="3">
-        <v>303000</v>
+        <v>387000</v>
       </c>
       <c r="F76" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2085,19 +2085,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" s="5">
-        <v>310000</v>
+        <v>456000</v>
       </c>
       <c r="F77" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2105,19 +2105,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E78" s="3">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="F78" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2125,19 +2125,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E79" s="5">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="F79" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2145,7 +2145,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
@@ -2154,10 +2154,10 @@
         <v>30</v>
       </c>
       <c r="E80" s="3">
-        <v>473000</v>
+        <v>325000</v>
       </c>
       <c r="F80" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2168,16 +2168,16 @@
         <v>11</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E81" s="5">
-        <v>350000</v>
+        <v>325000</v>
       </c>
       <c r="F81" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2185,19 +2185,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E82" s="3">
-        <v>303000</v>
+        <v>325000</v>
       </c>
       <c r="F82" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2205,19 +2205,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E83" s="5">
-        <v>310000</v>
+        <v>379000</v>
       </c>
       <c r="F83" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2225,19 +2225,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E84" s="3">
-        <v>310000</v>
+        <v>446000</v>
       </c>
       <c r="F84" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2245,19 +2245,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E85" s="5">
-        <v>330000</v>
+        <v>380000</v>
       </c>
       <c r="F85" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2265,19 +2265,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E86" s="3">
-        <v>473000</v>
+        <v>260000</v>
       </c>
       <c r="F86" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2285,19 +2285,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" s="5">
-        <v>350000</v>
+        <v>332000</v>
       </c>
       <c r="F87" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2305,19 +2305,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E88" s="3">
-        <v>303000</v>
+        <v>332000</v>
       </c>
       <c r="F88" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2325,19 +2325,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E89" s="5">
-        <v>310000</v>
+        <v>332000</v>
       </c>
       <c r="F89" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2345,19 +2345,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" s="3">
-        <v>310000</v>
+        <v>387000</v>
       </c>
       <c r="F90" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2365,19 +2365,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E91" s="5">
-        <v>330000</v>
+        <v>456000</v>
       </c>
       <c r="F91" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2385,19 +2385,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E92" s="3">
-        <v>473000</v>
+        <v>380000</v>
       </c>
       <c r="F92" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2405,19 +2405,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E93" s="5">
-        <v>342000</v>
+        <v>260000</v>
       </c>
       <c r="F93" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2425,19 +2425,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E94" s="3">
-        <v>296000</v>
+        <v>332000</v>
       </c>
       <c r="F94" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2445,19 +2445,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E95" s="5">
-        <v>303000</v>
+        <v>380000</v>
       </c>
       <c r="F95" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2465,19 +2465,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E96" s="3">
-        <v>303000</v>
+        <v>260000</v>
       </c>
       <c r="F96" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2485,19 +2485,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E97" s="5">
-        <v>320000</v>
+        <v>332000</v>
       </c>
       <c r="F97" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2508,16 +2508,16 @@
         <v>11</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E98" s="3">
-        <v>462000</v>
+        <v>332000</v>
       </c>
       <c r="F98" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2525,19 +2525,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E99" s="5">
-        <v>303000</v>
+        <v>332000</v>
       </c>
       <c r="F99" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2545,19 +2545,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E100" s="3">
-        <v>310000</v>
+        <v>387000</v>
       </c>
       <c r="F100" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2565,19 +2565,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E101" s="5">
-        <v>310000</v>
+        <v>456000</v>
       </c>
       <c r="F101" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2585,19 +2585,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E102" s="3">
-        <v>330000</v>
+        <v>380000</v>
       </c>
       <c r="F102" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2605,19 +2605,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E103" s="5">
-        <v>207000</v>
+        <v>260000</v>
       </c>
       <c r="F103" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2625,19 +2625,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E104" s="3">
-        <v>207000</v>
+        <v>332000</v>
       </c>
       <c r="F104" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2648,16 +2648,16 @@
         <v>11</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E105" s="5">
-        <v>220000</v>
+        <v>332000</v>
       </c>
       <c r="F105" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2665,19 +2665,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E106" s="3">
-        <v>234000</v>
+        <v>332000</v>
       </c>
       <c r="F106" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2685,19 +2685,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E107" s="5">
-        <v>303000</v>
+        <v>387000</v>
       </c>
       <c r="F107" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2705,19 +2705,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E108" s="3">
-        <v>207000</v>
+        <v>456000</v>
       </c>
       <c r="F108" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2725,19 +2725,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E109" s="5">
-        <v>207000</v>
+        <v>380000</v>
       </c>
       <c r="F109" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2745,19 +2745,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E110" s="3">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="F110" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2765,19 +2765,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E111" s="5">
-        <v>315000</v>
+        <v>332000</v>
       </c>
       <c r="F111" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2785,19 +2785,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E112" s="3">
-        <v>350000</v>
+        <v>332000</v>
       </c>
       <c r="F112" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2805,19 +2805,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E113" s="5">
-        <v>303000</v>
+        <v>332000</v>
       </c>
       <c r="F113" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2825,19 +2825,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E114" s="3">
-        <v>310000</v>
+        <v>387000</v>
       </c>
       <c r="F114" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2845,19 +2845,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E115" s="5">
-        <v>310000</v>
+        <v>456000</v>
       </c>
       <c r="F115" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2865,19 +2865,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116" s="3">
-        <v>330000</v>
+        <v>380000</v>
       </c>
       <c r="F116" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2885,19 +2885,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E117" s="5">
-        <v>473000</v>
+        <v>260000</v>
       </c>
       <c r="F117" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2905,19 +2905,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E118" s="3">
-        <v>350000</v>
+        <v>332000</v>
       </c>
       <c r="F118" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2925,19 +2925,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E119" s="5">
-        <v>303000</v>
+        <v>332000</v>
       </c>
       <c r="F119" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2945,19 +2945,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E120" s="3">
-        <v>310000</v>
+        <v>332000</v>
       </c>
       <c r="F120" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2965,19 +2965,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E121" s="5">
-        <v>310000</v>
+        <v>387000</v>
       </c>
       <c r="F121" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2985,19 +2985,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E122" s="3">
-        <v>330000</v>
+        <v>456000</v>
       </c>
       <c r="F122" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3005,19 +3005,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E123" s="5">
-        <v>473000</v>
+        <v>370000</v>
       </c>
       <c r="F123" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3025,19 +3025,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E124" s="3">
-        <v>343000</v>
+        <v>250000</v>
       </c>
       <c r="F124" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3045,19 +3045,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E125" s="5">
-        <v>296000</v>
+        <v>325000</v>
       </c>
       <c r="F125" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3071,13 +3071,13 @@
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E126" s="3">
-        <v>303000</v>
+        <v>325000</v>
       </c>
       <c r="F126" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3085,19 +3085,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E127" s="5">
-        <v>303000</v>
+        <v>325000</v>
       </c>
       <c r="F127" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3105,19 +3105,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E128" s="3">
-        <v>320000</v>
+        <v>379000</v>
       </c>
       <c r="F128" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3125,19 +3125,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E129" s="5">
-        <v>462000</v>
+        <v>446000</v>
       </c>
       <c r="F129" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3151,13 +3151,13 @@
         <v>7</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E130" s="3">
-        <v>350000</v>
+        <v>380000</v>
       </c>
       <c r="F130" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3171,13 +3171,13 @@
         <v>10</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E131" s="5">
-        <v>303000</v>
+        <v>260000</v>
       </c>
       <c r="F131" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3185,19 +3185,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E132" s="3">
-        <v>310000</v>
+        <v>332000</v>
       </c>
       <c r="F132" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3208,16 +3208,16 @@
         <v>11</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E133" s="5">
-        <v>310000</v>
+        <v>332000</v>
       </c>
       <c r="F133" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3225,19 +3225,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E134" s="3">
-        <v>330000</v>
+        <v>332000</v>
       </c>
       <c r="F134" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3245,19 +3245,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E135" s="5">
-        <v>473000</v>
+        <v>387000</v>
       </c>
       <c r="F135" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3265,19 +3265,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E136" s="3">
-        <v>303000</v>
+        <v>456000</v>
       </c>
       <c r="F136" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3285,19 +3285,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E137" s="5">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="F137" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3305,19 +3305,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E138" s="3">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="F138" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3328,16 +3328,16 @@
         <v>11</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E139" s="5">
-        <v>330000</v>
+        <v>332000</v>
       </c>
       <c r="F139" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3345,19 +3345,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E140" s="3">
-        <v>207000</v>
+        <v>380000</v>
       </c>
       <c r="F140" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3365,19 +3365,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E141" s="5">
-        <v>207000</v>
+        <v>260000</v>
       </c>
       <c r="F141" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3388,16 +3388,16 @@
         <v>11</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E142" s="3">
-        <v>220000</v>
+        <v>332000</v>
       </c>
       <c r="F142" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3405,19 +3405,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E143" s="5">
-        <v>100000</v>
+        <v>332000</v>
       </c>
       <c r="F143" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3425,19 +3425,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E144" s="3">
-        <v>100000</v>
+        <v>332000</v>
       </c>
       <c r="F144" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3445,19 +3445,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E145" s="5">
-        <v>133000</v>
+        <v>387000</v>
       </c>
       <c r="F145" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3465,19 +3465,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E146" s="3">
-        <v>202000</v>
+        <v>456000</v>
       </c>
       <c r="F146" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3485,19 +3485,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E147" s="5">
-        <v>207000</v>
+        <v>380000</v>
       </c>
       <c r="F147" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3505,19 +3505,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E148" s="3">
-        <v>207000</v>
+        <v>260000</v>
       </c>
       <c r="F148" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3525,19 +3525,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E149" s="5">
-        <v>220000</v>
+        <v>332000</v>
       </c>
       <c r="F149" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3548,16 +3548,16 @@
         <v>11</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E150" s="3">
-        <v>315000</v>
+        <v>332000</v>
       </c>
       <c r="F150" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3565,19 +3565,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E151" s="5">
-        <v>350000</v>
+        <v>332000</v>
       </c>
       <c r="F151" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3585,19 +3585,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E152" s="3">
-        <v>199000</v>
+        <v>387000</v>
       </c>
       <c r="F152" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3605,19 +3605,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E153" s="5">
-        <v>303000</v>
+        <v>456000</v>
       </c>
       <c r="F153" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3625,19 +3625,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E154" s="3">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="F154" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3645,19 +3645,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E155" s="5">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="F155" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3668,16 +3668,16 @@
         <v>11</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E156" s="3">
-        <v>330000</v>
+        <v>332000</v>
       </c>
       <c r="F156" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3688,16 +3688,16 @@
         <v>11</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E157" s="5">
-        <v>473000</v>
+        <v>332000</v>
       </c>
       <c r="F157" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3705,19 +3705,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E158" s="3">
-        <v>350000</v>
+        <v>332000</v>
       </c>
       <c r="F158" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3725,19 +3725,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E159" s="5">
-        <v>190000</v>
+        <v>387000</v>
       </c>
       <c r="F159" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3745,19 +3745,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E160" s="3">
-        <v>303000</v>
+        <v>456000</v>
       </c>
       <c r="F160" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3765,19 +3765,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E161" s="5">
-        <v>310000</v>
+        <v>380000</v>
       </c>
       <c r="F161" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3785,19 +3785,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E162" s="3">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="F162" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3808,16 +3808,16 @@
         <v>11</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E163" s="5">
-        <v>330000</v>
+        <v>332000</v>
       </c>
       <c r="F163" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3828,16 +3828,16 @@
         <v>11</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E164" s="3">
-        <v>473000</v>
+        <v>332000</v>
       </c>
       <c r="F164" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3845,19 +3845,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E165" s="5">
-        <v>350000</v>
+        <v>332000</v>
       </c>
       <c r="F165" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3865,19 +3865,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E166" s="3">
-        <v>199000</v>
+        <v>387000</v>
       </c>
       <c r="F166" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3885,19 +3885,19 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E167" s="5">
-        <v>303000</v>
+        <v>456000</v>
       </c>
       <c r="F167" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3905,19 +3905,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E168" s="3">
-        <v>310000</v>
+        <v>370000</v>
       </c>
       <c r="F168" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3925,19 +3925,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E169" s="5">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="F169" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3948,16 +3948,16 @@
         <v>11</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E170" s="3">
-        <v>330000</v>
+        <v>325000</v>
       </c>
       <c r="F170" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3968,16 +3968,416 @@
         <v>11</v>
       </c>
       <c r="C171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E171" s="5">
+        <v>325000</v>
+      </c>
+      <c r="F171" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" s="3">
+        <v>325000</v>
+      </c>
+      <c r="F172" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E173" s="5">
+        <v>379000</v>
+      </c>
+      <c r="F173" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" s="3">
+        <v>446000</v>
+      </c>
+      <c r="F174" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E175" s="5">
+        <v>380000</v>
+      </c>
+      <c r="F175" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E176" s="3">
+        <v>260000</v>
+      </c>
+      <c r="F176" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D177" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E177" s="5">
+        <v>332000</v>
+      </c>
+      <c r="F177" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E178" s="3">
+        <v>332000</v>
+      </c>
+      <c r="F178" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E179" s="5">
+        <v>332000</v>
+      </c>
+      <c r="F179" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E180" s="3">
+        <v>387000</v>
+      </c>
+      <c r="F180" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E181" s="5">
+        <v>456000</v>
+      </c>
+      <c r="F181" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E182" s="3">
+        <v>380000</v>
+      </c>
+      <c r="F182" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E183" s="5">
+        <v>260000</v>
+      </c>
+      <c r="F183" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184" s="3">
+        <v>332000</v>
+      </c>
+      <c r="F184" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E171" s="5">
-        <v>473000</v>
-      </c>
-      <c r="F171" s="4">
-        <v>15</v>
+      <c r="E185" s="5">
+        <v>380000</v>
+      </c>
+      <c r="F185" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E186" s="3">
+        <v>260000</v>
+      </c>
+      <c r="F186" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E187" s="5">
+        <v>332000</v>
+      </c>
+      <c r="F187" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E188" s="3">
+        <v>332000</v>
+      </c>
+      <c r="F188" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E189" s="5">
+        <v>332000</v>
+      </c>
+      <c r="F189" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E190" s="3">
+        <v>387000</v>
+      </c>
+      <c r="F190" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E191" s="5">
+        <v>456000</v>
+      </c>
+      <c r="F191" s="4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
